--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G826"/>
+  <dimension ref="A1:G749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19218,10 +19218,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G711" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="712">
@@ -19251,10 +19249,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -19280,10 +19276,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -19313,10 +19307,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G714" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="715">
@@ -19342,10 +19334,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G715" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="716">
@@ -19375,10 +19365,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -19408,10 +19396,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G717" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="718">
@@ -19441,10 +19427,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G718" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="719">
@@ -19462,10 +19446,8 @@
       <c r="D719" t="inlineStr"/>
       <c r="E719" t="inlineStr"/>
       <c r="F719" t="inlineStr"/>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G719" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="720">
@@ -19495,10 +19477,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G720" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="721">
@@ -19524,10 +19504,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G721" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="722">
@@ -19553,10 +19531,8 @@
         </is>
       </c>
       <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G722" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="723">
@@ -19578,10 +19554,8 @@
         </is>
       </c>
       <c r="F723" t="inlineStr"/>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G723" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="724">
@@ -19607,10 +19581,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G724" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="725">
@@ -19636,10 +19608,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G725" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="726">
@@ -19661,10 +19631,8 @@
       </c>
       <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G726" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="727">
@@ -19686,10 +19654,8 @@
       </c>
       <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G727" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="728">
@@ -19707,10 +19673,8 @@
       <c r="D728" t="inlineStr"/>
       <c r="E728" t="inlineStr"/>
       <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G728" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="729">
@@ -19732,10 +19696,8 @@
       </c>
       <c r="E729" t="inlineStr"/>
       <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G729" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="730">
@@ -19757,10 +19719,8 @@
       </c>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G730" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="731">
@@ -19778,10 +19738,8 @@
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G731" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="732">
@@ -19799,10 +19757,8 @@
       <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr"/>
       <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G732" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="733">
@@ -19824,10 +19780,8 @@
       </c>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr"/>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G733" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="734">
@@ -19845,24 +19799,38 @@
       <c r="D734" t="inlineStr"/>
       <c r="E734" t="inlineStr"/>
       <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G734" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Average Hourly Earnings MoMFEB</t>
+        </is>
+      </c>
       <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr"/>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
@@ -19872,28 +19840,24 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C736" t="inlineStr"/>
       <c r="D736" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr"/>
       <c r="F736" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19905,28 +19869,24 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E737" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr"/>
       <c r="F737" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19938,28 +19898,24 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr"/>
       <c r="F738" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19971,28 +19927,24 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C739" t="inlineStr"/>
       <c r="D739" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>$-114.7B</t>
-        </is>
-      </c>
+          <t>32K</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr"/>
       <c r="F739" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -20004,28 +19956,24 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E740" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr"/>
       <c r="F740" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -20037,28 +19985,24 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E741" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>111K</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr"/>
       <c r="F741" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -20070,87 +20014,63 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C742" t="inlineStr"/>
       <c r="D742" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E743" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
       <c r="G743" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F744" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D744" t="inlineStr"/>
+      <c r="E744" t="inlineStr"/>
+      <c r="F744" t="inlineStr"/>
       <c r="G744" t="inlineStr">
         <is>
           <t>3</t>
@@ -20160,51 +20080,43 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C745" t="inlineStr"/>
       <c r="D745" t="inlineStr">
         <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E745" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
+          <t>$40.85B</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>$ -3.0B</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A746" t="inlineStr"/>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C746" t="inlineStr"/>
       <c r="D746" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -20216,20 +20128,16 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A747" t="inlineStr"/>
       <c r="B747" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Used Car Prices YoYFEB</t>
         </is>
       </c>
       <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E747" t="inlineStr"/>
@@ -20243,7 +20151,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>Sunday March 02 2025</t>
+          <t>Saturday March 08 2025</t>
         </is>
       </c>
       <c r="B748" t="inlineStr"/>
@@ -20256,7 +20164,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
+          <t>Sunday March 09 2025</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -20266,1947 +20174,6 @@
       <c r="F749" t="inlineStr"/>
       <c r="G749" t="inlineStr"/>
     </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F750" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIFEB</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr"/>
-      <c r="F754" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesFEB</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E755" t="inlineStr"/>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E756" t="inlineStr"/>
-      <c r="F756" t="inlineStr"/>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr"/>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr"/>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr"/>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr"/>
-      <c r="G758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr"/>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr"/>
-      <c r="E761" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F761" t="inlineStr"/>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr"/>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr"/>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr"/>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F771" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F772" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr"/>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr"/>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr"/>
-      <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr"/>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr"/>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr"/>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr"/>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr"/>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr"/>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr"/>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr"/>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr"/>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr"/>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr"/>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr"/>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr"/>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr"/>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr"/>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr"/>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr"/>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr"/>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr"/>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr"/>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr"/>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr"/>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G809"/>
+  <dimension ref="A1:G733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18586,10 +18586,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -18619,10 +18617,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G690" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -18652,10 +18648,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -18685,10 +18679,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -18718,10 +18710,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -18751,10 +18741,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -18784,10 +18772,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -18813,10 +18799,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -18846,10 +18830,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -18875,10 +18857,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -18908,10 +18888,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -18941,10 +18919,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -18974,10 +18950,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -18995,10 +18969,8 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -19028,10 +19000,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -19057,10 +19027,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -19086,10 +19054,8 @@
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -19111,10 +19077,8 @@
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -19140,10 +19104,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -19169,10 +19131,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -19194,10 +19154,8 @@
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -19219,10 +19177,8 @@
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -19240,10 +19196,8 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -19265,10 +19219,8 @@
       </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -19290,10 +19242,8 @@
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -19311,10 +19261,8 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -19332,10 +19280,8 @@
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="716">
@@ -19357,10 +19303,8 @@
       </c>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -19378,24 +19322,38 @@
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Unemployment RateFEB</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -19405,28 +19363,24 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E719" t="inlineStr">
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr">
         <is>
           <t>0.3%</t>
         </is>
       </c>
-      <c r="F719" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19438,28 +19392,24 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19471,28 +19421,24 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19504,28 +19450,24 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E722" t="inlineStr">
-        <is>
-          <t>$-114.7B</t>
-        </is>
-      </c>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19537,28 +19479,24 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>32K</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19570,28 +19508,24 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19603,24 +19537,24 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>111K</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
       <c r="F725" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19632,58 +19566,42 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
       <c r="D726" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr">
         <is>
           <t>3</t>
@@ -19693,55 +19611,47 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
       <c r="D729" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>$40.85B</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>$ -3.0B</t>
+        </is>
+      </c>
       <c r="G729" t="inlineStr">
         <is>
           <t>3</t>
@@ -19749,20 +19659,16 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A730" t="inlineStr"/>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E730" t="inlineStr"/>
@@ -19774,22 +19680,30 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>Sunday March 02 2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYFEB</t>
+        </is>
+      </c>
       <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
+          <t>Saturday March 08 2025</t>
         </is>
       </c>
       <c r="B732" t="inlineStr"/>
@@ -19802,1943 +19716,15 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr"/>
       <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIFEB</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesFEB</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr"/>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr"/>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E756" t="inlineStr"/>
-      <c r="F756" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr"/>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr"/>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr"/>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr"/>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr"/>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr"/>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr"/>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr"/>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr"/>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr"/>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr"/>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr"/>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr"/>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr"/>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr"/>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr"/>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr"/>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr"/>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr"/>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G809"/>
+  <dimension ref="A1:G733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18590,10 +18590,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -18627,10 +18625,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G690" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -18664,10 +18660,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -18701,10 +18695,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -18738,10 +18730,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -18775,10 +18765,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -18812,10 +18800,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -18845,10 +18831,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -18882,10 +18866,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -18915,10 +18897,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -18952,10 +18932,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -18989,10 +18967,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -19026,10 +19002,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -19047,10 +19021,8 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -19084,10 +19056,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -19117,10 +19087,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -19150,10 +19118,8 @@
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -19175,10 +19141,8 @@
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -19208,10 +19172,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -19241,10 +19203,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -19266,10 +19226,8 @@
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -19291,10 +19249,8 @@
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -19312,10 +19268,8 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -19337,10 +19291,8 @@
       </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -19362,10 +19314,8 @@
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -19383,10 +19333,8 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -19404,10 +19352,8 @@
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="716">
@@ -19429,10 +19375,8 @@
       </c>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -19450,24 +19394,42 @@
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Unemployment RateFEB</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -19477,13 +19439,13 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -19493,12 +19455,12 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19510,28 +19472,24 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19543,28 +19501,24 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19576,28 +19530,28 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>$-114.7B</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19609,28 +19563,24 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>32K</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19642,28 +19592,24 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19675,24 +19621,28 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
+          <t>111K</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>108K</t>
+        </is>
+      </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19704,58 +19654,42 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
       <c r="D726" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr">
         <is>
           <t>3</t>
@@ -19765,55 +19699,47 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
       <c r="D729" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>$40.85B</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>$ -3.0B</t>
+        </is>
+      </c>
       <c r="G729" t="inlineStr">
         <is>
           <t>3</t>
@@ -19821,20 +19747,16 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A730" t="inlineStr"/>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E730" t="inlineStr"/>
@@ -19846,22 +19768,30 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>Sunday March 02 2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYFEB</t>
+        </is>
+      </c>
       <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
+          <t>Saturday March 08 2025</t>
         </is>
       </c>
       <c r="B732" t="inlineStr"/>
@@ -19874,1951 +19804,15 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr"/>
       <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIFEB</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesFEB</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr"/>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr"/>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E756" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F756" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr"/>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr"/>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr"/>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr"/>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr"/>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr"/>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr"/>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr"/>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>-261Bcf</t>
-        </is>
-      </c>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr"/>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr"/>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr"/>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr"/>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr"/>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr"/>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr"/>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr"/>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr"/>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr"/>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr"/>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G809"/>
+  <dimension ref="A1:G733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18590,10 +18590,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -18627,10 +18625,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G690" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -18664,10 +18660,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -18701,10 +18695,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -18738,10 +18730,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -18775,10 +18765,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -18812,10 +18800,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -18845,10 +18831,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -18882,10 +18866,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -18915,10 +18897,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -18952,10 +18932,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -18989,10 +18967,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -19026,10 +19002,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -19047,10 +19021,8 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -19084,10 +19056,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -19117,10 +19087,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -19150,10 +19118,8 @@
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -19175,10 +19141,8 @@
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -19208,10 +19172,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -19241,10 +19203,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -19270,10 +19230,8 @@
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -19299,10 +19257,8 @@
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -19320,10 +19276,8 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -19349,10 +19303,8 @@
       </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -19378,10 +19330,8 @@
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -19399,10 +19349,8 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -19420,10 +19368,8 @@
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="716">
@@ -19445,10 +19391,8 @@
       </c>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -19466,24 +19410,42 @@
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Unemployment RateFEB</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
@@ -19493,13 +19455,13 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E719" t="inlineStr">
@@ -19509,12 +19471,12 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19526,28 +19488,24 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E720" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr"/>
       <c r="F720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19559,28 +19517,24 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E721" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -19592,28 +19546,28 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>$-114.7B</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19625,28 +19579,24 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>32K</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19658,28 +19608,24 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19691,24 +19637,28 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
+          <t>111K</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>108K</t>
+        </is>
+      </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19720,58 +19670,42 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
       <c r="D726" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>7.6%</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+      <c r="D727" t="inlineStr"/>
+      <c r="E727" t="inlineStr"/>
+      <c r="F727" t="inlineStr"/>
       <c r="G727" t="inlineStr">
         <is>
           <t>3</t>
@@ -19781,55 +19715,47 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr"/>
+      <c r="F728" t="inlineStr"/>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
       <c r="D729" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>$40.85B</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>$ -3.0B</t>
+        </is>
+      </c>
       <c r="G729" t="inlineStr">
         <is>
           <t>3</t>
@@ -19837,20 +19763,16 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
+      <c r="A730" t="inlineStr"/>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E730" t="inlineStr"/>
@@ -19862,22 +19784,30 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>Sunday March 02 2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Used Car Prices YoYFEB</t>
+        </is>
+      </c>
       <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr"/>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
+          <t>Saturday March 08 2025</t>
         </is>
       </c>
       <c r="B732" t="inlineStr"/>
@@ -19890,2011 +19820,15 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr"/>
       <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIFEB</t>
-        </is>
-      </c>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesFEB</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr"/>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr"/>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E756" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F756" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr"/>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr"/>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>242K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>250.0K</t>
-        </is>
-      </c>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>1862K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>-261Bcf</t>
-        </is>
-      </c>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>5.94%</t>
-        </is>
-      </c>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr"/>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr"/>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr"/>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="F793" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F795" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr">
-        <is>
-          <t>108K</t>
-        </is>
-      </c>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr"/>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr"/>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr"/>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr"/>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr"/>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G809"/>
+  <dimension ref="A1:G737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18590,10 +18590,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -18627,10 +18625,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G690" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -18664,10 +18660,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -18701,10 +18695,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -18738,10 +18730,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -18775,10 +18765,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -18812,10 +18800,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -18845,10 +18831,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -18882,10 +18866,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -18915,10 +18897,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -18952,10 +18932,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -18989,10 +18967,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -19026,10 +19002,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -19047,10 +19021,8 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -19084,10 +19056,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -19117,10 +19087,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -19150,10 +19118,8 @@
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -19175,10 +19141,8 @@
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -19208,10 +19172,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -19241,10 +19203,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -19270,10 +19230,8 @@
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -19299,10 +19257,8 @@
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -19320,10 +19276,8 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -19349,10 +19303,8 @@
       </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -19378,10 +19330,8 @@
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -19399,10 +19349,8 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -19420,10 +19368,8 @@
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="716">
@@ -19449,10 +19395,8 @@
       </c>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -19470,57 +19414,43 @@
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr"/>
       <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
+          <t>Friday March 07 2025</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr"/>
       <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -19530,23 +19460,23 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Non Farm PayrollsFEB</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>143K</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>180.0K</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -19563,23 +19493,23 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -19596,23 +19526,23 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>$-114.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -19629,23 +19559,19 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -19662,23 +19588,19 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
@@ -19695,24 +19617,28 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19724,28 +19650,24 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
       <c r="D726" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>32K</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19757,23 +19679,19 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
       <c r="D727" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -19785,55 +19703,59 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
       <c r="D728" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>111K</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>108K</t>
         </is>
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
       <c r="D729" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="G729" t="inlineStr">
         <is>
           <t>3</t>
@@ -19843,2066 +19765,162 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
+      <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Sunday March 02 2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
+        </is>
+      </c>
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
+        </is>
+      </c>
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr"/>
       <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr"/>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>$40.85B</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>$ -3.0B</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A734" t="inlineStr"/>
       <c r="B734" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIFEB</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C734" t="inlineStr"/>
       <c r="D734" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F734" t="inlineStr"/>
       <c r="G734" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A735" t="inlineStr"/>
       <c r="B735" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
+          <t>Used Car Prices YoYFEB</t>
         </is>
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMJAN</t>
-        </is>
-      </c>
+          <t>Saturday March 08 2025</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
       <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D736" t="inlineStr"/>
       <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr"/>
       <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
+      <c r="D737" t="inlineStr"/>
       <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesFEB</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr"/>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr"/>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F754" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E756" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F756" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr"/>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr"/>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>242K</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>250.0K</t>
-        </is>
-      </c>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>1862K</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr"/>
-      <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr"/>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>-261Bcf</t>
-        </is>
-      </c>
-      <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr"/>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>5.94%</t>
-        </is>
-      </c>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr"/>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr"/>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr"/>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="F793" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F795" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F798" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr">
-        <is>
-          <t>108K</t>
-        </is>
-      </c>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr"/>
-      <c r="E804" t="inlineStr"/>
-      <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr"/>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr"/>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr"/>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr"/>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr"/>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr"/>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G813"/>
+  <dimension ref="A1:G737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18590,10 +18590,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G689" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G689" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -18627,10 +18625,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G690" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G690" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -18664,10 +18660,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G691" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G691" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="692">
@@ -18701,10 +18695,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="G692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="693">
@@ -18738,10 +18730,8 @@
           <t>225.0K</t>
         </is>
       </c>
-      <c r="G693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694">
@@ -18775,10 +18765,8 @@
           <t>1874.0K</t>
         </is>
       </c>
-      <c r="G694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="695">
@@ -18812,10 +18800,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="696">
@@ -18845,10 +18831,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="G696" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G696" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="697">
@@ -18882,10 +18866,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="G697" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G697" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="698">
@@ -18915,10 +18897,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G698" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="699">
@@ -18952,10 +18932,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G699" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="700">
@@ -18989,10 +18967,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G700" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="701">
@@ -19026,10 +19002,8 @@
           <t>4.2%</t>
         </is>
       </c>
-      <c r="G701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="702">
@@ -19047,10 +19021,8 @@
       <c r="D702" t="inlineStr"/>
       <c r="E702" t="inlineStr"/>
       <c r="F702" t="inlineStr"/>
-      <c r="G702" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G702" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="703">
@@ -19084,10 +19056,8 @@
           <t>-0.9%</t>
         </is>
       </c>
-      <c r="G703" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G703" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="704">
@@ -19117,10 +19087,8 @@
           <t>6.0%</t>
         </is>
       </c>
-      <c r="G704" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G704" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="705">
@@ -19150,10 +19118,8 @@
         </is>
       </c>
       <c r="F705" t="inlineStr"/>
-      <c r="G705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="706">
@@ -19175,10 +19141,8 @@
         </is>
       </c>
       <c r="F706" t="inlineStr"/>
-      <c r="G706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="707">
@@ -19208,10 +19172,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -19241,10 +19203,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="709">
@@ -19270,10 +19230,8 @@
       </c>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G709" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="710">
@@ -19299,10 +19257,8 @@
       </c>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="711">
@@ -19320,10 +19276,8 @@
       <c r="D711" t="inlineStr"/>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G711" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="712">
@@ -19349,10 +19303,8 @@
       </c>
       <c r="E712" t="inlineStr"/>
       <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G712" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="713">
@@ -19378,10 +19330,8 @@
       </c>
       <c r="E713" t="inlineStr"/>
       <c r="F713" t="inlineStr"/>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G713" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="714">
@@ -19399,10 +19349,8 @@
       <c r="D714" t="inlineStr"/>
       <c r="E714" t="inlineStr"/>
       <c r="F714" t="inlineStr"/>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G714" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="715">
@@ -19420,10 +19368,8 @@
       <c r="D715" t="inlineStr"/>
       <c r="E715" t="inlineStr"/>
       <c r="F715" t="inlineStr"/>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G715" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="716">
@@ -19449,10 +19395,8 @@
       </c>
       <c r="E716" t="inlineStr"/>
       <c r="F716" t="inlineStr"/>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G716" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="717">
@@ -19470,57 +19414,43 @@
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
       <c r="F717" t="inlineStr"/>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G717" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Fed Bostic Speech</t>
+        </is>
+      </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr"/>
       <c r="E718" t="inlineStr"/>
       <c r="F718" t="inlineStr"/>
-      <c r="G718" t="inlineStr"/>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
+          <t>Friday March 07 2025</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr"/>
       <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E719" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F719" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
@@ -19530,23 +19460,23 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Non Farm PayrollsFEB</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>143K</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>180.0K</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -19563,23 +19493,23 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
       <c r="D721" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -19596,23 +19526,23 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C722" t="inlineStr"/>
       <c r="D722" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
         <is>
-          <t>$-114.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -19629,23 +19559,19 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr"/>
       <c r="F723" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -19662,23 +19588,19 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E724" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>62.6%</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr"/>
       <c r="F724" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
@@ -19695,24 +19617,28 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
       <c r="D725" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E725" t="inlineStr"/>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19724,28 +19650,24 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
       <c r="D726" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E726" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>32K</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr"/>
       <c r="F726" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-20.0K</t>
         </is>
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -19757,23 +19679,19 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
       <c r="D727" t="inlineStr">
         <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>3K</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr"/>
       <c r="F727" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>6.0K</t>
         </is>
       </c>
       <c r="G727" t="inlineStr">
@@ -19785,55 +19703,59 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
       <c r="D728" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>111K</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>108K</t>
         </is>
       </c>
       <c r="F728" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>170.0K</t>
         </is>
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C729" t="inlineStr"/>
       <c r="D729" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="G729" t="inlineStr">
         <is>
           <t>3</t>
@@ -19843,2150 +19765,162 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
+      <c r="D730" t="inlineStr"/>
       <c r="E730" t="inlineStr"/>
       <c r="F730" t="inlineStr"/>
       <c r="G730" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>Sunday March 02 2025</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
+        </is>
+      </c>
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr"/>
       <c r="E731" t="inlineStr"/>
       <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
+        </is>
+      </c>
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr"/>
       <c r="E732" t="inlineStr"/>
       <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr"/>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="E733" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>$40.85B</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>$ -3.0B</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A734" t="inlineStr"/>
       <c r="B734" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIFEB</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C734" t="inlineStr"/>
       <c r="D734" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="F734" t="inlineStr"/>
       <c r="G734" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A735" t="inlineStr"/>
       <c r="B735" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
+          <t>Used Car Prices YoYFEB</t>
         </is>
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMJAN</t>
-        </is>
-      </c>
+          <t>Saturday March 08 2025</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr"/>
       <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D736" t="inlineStr"/>
       <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr"/>
       <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
+      <c r="D737" t="inlineStr"/>
       <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesFEB</t>
-        </is>
-      </c>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr">
-        <is>
-          <t>54.9</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr">
-        <is>
-          <t>4.195%</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr"/>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr"/>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>11:35 AM</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr">
-        <is>
-          <t>Fed Musalem Speech</t>
-        </is>
-      </c>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr"/>
-      <c r="G741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr"/>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr"/>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/01</t>
-        </is>
-      </c>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr">
-        <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
-        </is>
-      </c>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="E744" t="inlineStr"/>
-      <c r="F744" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
-        </is>
-      </c>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr"/>
-      <c r="E745" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>02:20 PM</t>
-        </is>
-      </c>
-      <c r="B746" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr"/>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr">
-        <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr"/>
-      <c r="B748" t="inlineStr">
-        <is>
-          <t>LMI Logistics Managers IndexFEB</t>
-        </is>
-      </c>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr">
-        <is>
-          <t>62.0</t>
-        </is>
-      </c>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr"/>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr"/>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
-        </is>
-      </c>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr">
-        <is>
-          <t>6.88%</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
-        </is>
-      </c>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr">
-        <is>
-          <t>212.3</t>
-        </is>
-      </c>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr">
-        <is>
-          <t>572.5</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr"/>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/28</t>
-        </is>
-      </c>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr">
-        <is>
-          <t>144.3</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr"/>
-      <c r="F754" t="inlineStr"/>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>ADP Employment ChangeFEB</t>
-        </is>
-      </c>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr">
-        <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E755" t="inlineStr"/>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>200.0K</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E756" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F756" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>09:45 AM</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
-        </is>
-      </c>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr">
-        <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E757" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F757" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr">
-        <is>
-          <t>ISM Services PMIFEB</t>
-        </is>
-      </c>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr">
-        <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E758" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationJAN</t>
-        </is>
-      </c>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr">
-        <is>
-          <t>ISM Services Business ActivityFEB</t>
-        </is>
-      </c>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr">
-        <is>
-          <t>ISM Services EmploymentFEB</t>
-        </is>
-      </c>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>ISM Services New OrdersFEB</t>
-        </is>
-      </c>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>ISM Services PricesFEB</t>
-        </is>
-      </c>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>60.4</t>
-        </is>
-      </c>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr">
-        <is>
-          <t>0.369M</t>
-        </is>
-      </c>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr">
-        <is>
-          <t>0.292M</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr">
-        <is>
-          <t>1.282M</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr">
-        <is>
-          <t>0.439M</t>
-        </is>
-      </c>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr">
-        <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr">
-        <is>
-          <t>0.134M</t>
-        </is>
-      </c>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>Fed Beige Book</t>
-        </is>
-      </c>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr"/>
-      <c r="G775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr"/>
-      <c r="B776" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesFEB</t>
-        </is>
-      </c>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr">
-        <is>
-          <t>15.6M</t>
-        </is>
-      </c>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr"/>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr"/>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr"/>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr"/>
-      <c r="G777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsFEB</t>
-        </is>
-      </c>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>49.795K</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>$-98.4B</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>$-103B</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B780" t="inlineStr">
-        <is>
-          <t>ExportsJAN</t>
-        </is>
-      </c>
-      <c r="C780" t="inlineStr"/>
-      <c r="D780" t="inlineStr">
-        <is>
-          <t>$266.5B</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr"/>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
-      <c r="G780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B781" t="inlineStr">
-        <is>
-          <t>ImportsJAN</t>
-        </is>
-      </c>
-      <c r="C781" t="inlineStr"/>
-      <c r="D781" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
-      <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>$376.0B</t>
-        </is>
-      </c>
-      <c r="G781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B782" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C782" t="inlineStr"/>
-      <c r="D782" t="inlineStr">
-        <is>
-          <t>242K</t>
-        </is>
-      </c>
-      <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr">
-        <is>
-          <t>250.0K</t>
-        </is>
-      </c>
-      <c r="G782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C783" t="inlineStr"/>
-      <c r="D783" t="inlineStr">
-        <is>
-          <t>1862K</t>
-        </is>
-      </c>
-      <c r="E783" t="inlineStr"/>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="G783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
-      <c r="C784" t="inlineStr"/>
-      <c r="D784" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
-      <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E785" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="F785" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
-        </is>
-      </c>
-      <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E786" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="F786" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr"/>
-      <c r="E787" t="inlineStr"/>
-      <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
-        </is>
-      </c>
-      <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>-261Bcf</t>
-        </is>
-      </c>
-      <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B789" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E789" t="inlineStr"/>
-      <c r="F789" t="inlineStr"/>
-      <c r="G789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E790" t="inlineStr"/>
-      <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C791" t="inlineStr"/>
-      <c r="D791" t="inlineStr">
-        <is>
-          <t>5.94%</t>
-        </is>
-      </c>
-      <c r="E791" t="inlineStr"/>
-      <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/06</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>6.76%</t>
-        </is>
-      </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr"/>
-      <c r="E794" t="inlineStr"/>
-      <c r="F794" t="inlineStr"/>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B795" t="inlineStr"/>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr"/>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr"/>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="F796" t="inlineStr">
-        <is>
-          <t>180.0K</t>
-        </is>
-      </c>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr">
-        <is>
-          <t>Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E797" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F797" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G797" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMFEB</t>
-        </is>
-      </c>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F798" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYFEB</t>
-        </is>
-      </c>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="G799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E801" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F801" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>Government PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsFEB</t>
-        </is>
-      </c>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
-      <c r="G803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
-      <c r="C804" t="inlineStr"/>
-      <c r="D804" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E804" t="inlineStr">
-        <is>
-          <t>108K</t>
-        </is>
-      </c>
-      <c r="F804" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
-      <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E805" t="inlineStr"/>
-      <c r="F805" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>10:45 AM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr"/>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr"/>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr"/>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr"/>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr"/>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr"/>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr"/>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr"/>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr"/>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr"/>
-      <c r="G813" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
